--- a/gym_pds/envs/Case_33BW_Data.xlsx
+++ b/gym_pds/envs/Case_33BW_Data.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\IL_Self_Healing\IL_Self_Healing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Academic\SelfHealing\gym_pds\envs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1849FC26-2FC2-4B2E-B923-CE0B29528B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B0D8AD-37C7-4F0D-9AE4-43A9ECD2A280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="1425" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bus" sheetId="9" r:id="rId1"/>
-    <sheet name="DG" sheetId="16" r:id="rId2"/>
-    <sheet name="Branch" sheetId="13" r:id="rId3"/>
-    <sheet name="Plot" sheetId="14" r:id="rId4"/>
+    <sheet name="Base" sheetId="17" r:id="rId1"/>
+    <sheet name="Bus" sheetId="9" r:id="rId2"/>
+    <sheet name="DG" sheetId="16" r:id="rId3"/>
+    <sheet name="Branch" sheetId="13" r:id="rId4"/>
+    <sheet name="Plot" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>To</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +104,14 @@
   </si>
   <si>
     <t>TieLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vulnerable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vb(kV)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -214,22 +223,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,12 +243,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,6 +524,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A5520F-0884-4749-AEAB-24535D6EEF87}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>12.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BC601C-6925-4DEF-89B0-5C277128F18A}">
   <dimension ref="A1:C34"/>
   <sheetViews>
@@ -539,13 +557,13 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -556,7 +574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -567,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -578,7 +596,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -589,7 +607,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -600,7 +618,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -611,7 +629,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -622,7 +640,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -633,7 +651,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -644,7 +662,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -655,7 +673,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -666,7 +684,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -677,7 +695,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -688,7 +706,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -699,7 +717,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -710,7 +728,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -721,7 +739,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -732,7 +750,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -743,7 +761,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -754,7 +772,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -765,7 +783,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -776,7 +794,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -787,7 +805,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -798,7 +816,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -809,7 +827,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -820,7 +838,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -831,7 +849,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -842,7 +860,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -853,7 +871,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -864,7 +882,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -875,7 +893,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -886,7 +904,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -897,7 +915,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -908,7 +926,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -926,7 +944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC95A016-9E3A-444D-BA06-B44D9BEF325F}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -934,16 +952,16 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -966,7 +984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -989,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1012,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1035,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1058,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1081,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1104,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1125,899 +1143,6 @@
       </c>
       <c r="G8" s="2">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24793DA6-4E57-4A6F-B748-31D49F9D3CC2}">
-  <dimension ref="A1:G38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.25109999999999999</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.18640000000000001</v>
-      </c>
-      <c r="F4" s="2">
-        <v>10</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.38109999999999999</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.19409999999999999</v>
-      </c>
-      <c r="F5" s="2">
-        <v>10</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="F6" s="2">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.18720000000000001</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.61880000000000002</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.7114</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.2351000000000001</v>
-      </c>
-      <c r="F8" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="F9" s="2">
-        <v>10</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.044</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="F10" s="2">
-        <v>10</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.1966</v>
-      </c>
-      <c r="E11" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>10</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.37440000000000001</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.12379999999999999</v>
-      </c>
-      <c r="F12" s="2">
-        <v>10</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.468</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1.155</v>
-      </c>
-      <c r="F13" s="2">
-        <v>10</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.54159999999999997</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.71289999999999998</v>
-      </c>
-      <c r="F14" s="2">
-        <v>10</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="F15" s="2">
-        <v>10</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.74629999999999996</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="F16" s="2">
-        <v>10</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1.2889999999999999</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.7210000000000001</v>
-      </c>
-      <c r="F17" s="2">
-        <v>10</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="F18" s="2">
-        <v>10</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.1565</v>
-      </c>
-      <c r="F19" s="2">
-        <v>10</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.5042</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.3553999999999999</v>
-      </c>
-      <c r="F20" s="2">
-        <v>10</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2">
-        <v>21</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.40949999999999998</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.47839999999999999</v>
-      </c>
-      <c r="F21" s="2">
-        <v>10</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.70889999999999997</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.93730000000000002</v>
-      </c>
-      <c r="F22" s="2">
-        <v>10</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2">
-        <v>23</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.45119999999999999</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.30830000000000002</v>
-      </c>
-      <c r="F23" s="2">
-        <v>10</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2">
-        <v>24</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.70909999999999995</v>
-      </c>
-      <c r="F24" s="2">
-        <v>10</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.70109999999999995</v>
-      </c>
-      <c r="F25" s="2">
-        <v>10</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2">
-        <v>26</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.10340000000000001</v>
-      </c>
-      <c r="F26" s="2">
-        <v>10</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.28420000000000001</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.1447</v>
-      </c>
-      <c r="F27" s="2">
-        <v>10</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="2">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.93369999999999997</v>
-      </c>
-      <c r="F28" s="2">
-        <v>10</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="2">
-        <v>29</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.80420000000000003</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.7006</v>
-      </c>
-      <c r="F29" s="2">
-        <v>10</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="2">
-        <v>30</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.50749999999999995</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.25850000000000001</v>
-      </c>
-      <c r="F30" s="2">
-        <v>10</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="2">
-        <v>31</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.97440000000000004</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="F31" s="2">
-        <v>10</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="2">
-        <v>32</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.3105</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.3619</v>
-      </c>
-      <c r="F32" s="2">
-        <v>10</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="2">
-        <v>33</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.5302</v>
-      </c>
-      <c r="F33" s="2">
-        <v>10</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3">
-        <v>8</v>
-      </c>
-      <c r="C34" s="3">
-        <v>21</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3">
-        <v>10</v>
-      </c>
-      <c r="G34" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3">
-        <v>9</v>
-      </c>
-      <c r="C35" s="3">
-        <v>15</v>
-      </c>
-      <c r="D35" s="3">
-        <v>2</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3">
-        <v>10</v>
-      </c>
-      <c r="G35" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3">
-        <v>10</v>
-      </c>
-      <c r="G36" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3">
-        <v>18</v>
-      </c>
-      <c r="C37" s="3">
-        <v>33</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F37" s="3">
-        <v>10</v>
-      </c>
-      <c r="G37" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3">
-        <v>25</v>
-      </c>
-      <c r="C38" s="3">
-        <v>29</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F38" s="3">
-        <v>10</v>
-      </c>
-      <c r="G38" s="8">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2027,16 +1152,1024 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24793DA6-4E57-4A6F-B748-31D49F9D3CC2}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.25109999999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.38109999999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.19409999999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.61880000000000002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.7114</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.2351000000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.044</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.1966</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.37440000000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.468</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.155</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.54159999999999997</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.71289999999999998</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.1565</v>
+      </c>
+      <c r="F19" s="2">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.5042</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.3553999999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.47839999999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.70889999999999997</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.45119999999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.30830000000000002</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.70909999999999995</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="F25" s="2">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="F26" s="2">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2">
+        <v>27</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.28420000000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.1447</v>
+      </c>
+      <c r="F27" s="2">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="F28" s="2">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.80420000000000003</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.7006</v>
+      </c>
+      <c r="F29" s="2">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="F30" s="2">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2">
+        <v>31</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="F31" s="2">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.3105</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.3619</v>
+      </c>
+      <c r="F32" s="2">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2">
+        <v>33</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.5302</v>
+      </c>
+      <c r="F33" s="2">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3">
+        <v>21</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3">
+        <v>15</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>18</v>
+      </c>
+      <c r="C37" s="3">
+        <v>33</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>25</v>
+      </c>
+      <c r="C38" s="3">
+        <v>29</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="3">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC09ADA-C224-4A47-8F05-793C90EF2E62}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="6" t="s">
         <v>9</v>
@@ -2045,7 +2178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2056,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2067,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2078,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2089,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2100,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2111,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2122,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2133,7 +2266,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2144,7 +2277,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2155,7 +2288,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2166,7 +2299,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2177,7 +2310,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2188,7 +2321,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2199,7 +2332,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2210,7 +2343,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2221,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2232,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2243,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2254,7 +2387,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2265,7 +2398,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2276,7 +2409,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2287,7 +2420,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2298,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2309,7 +2442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2320,7 +2453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2331,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2342,7 +2475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2353,7 +2486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2364,7 +2497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2375,7 +2508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2386,7 +2519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2397,7 +2530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
